--- a/src/test/resources/ExcelFiles/LoginDetails.xlsx
+++ b/src/test/resources/ExcelFiles/LoginDetails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://focalpointk12-my.sharepoint.com/personal/gopi_pagadala_focalpointk12_com/Documents/FPK12 Automation-2024/FPK12-AssessmentCenter/src/test/resources/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="158" documentId="13_ncr:1_{6200E935-D564-4C0E-BA26-194115C14345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE1C719E-CA4B-4185-BDD7-F9D4C10A0792}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="13_ncr:1_{6200E935-D564-4C0E-BA26-194115C14345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9764B68A-0102-40CB-84AE-FA94051FBD42}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>FirstName</t>
   </si>
@@ -71,15 +71,6 @@
     <t>fpk12student</t>
   </si>
   <si>
-    <t>FPK12School2439</t>
-  </si>
-  <si>
-    <t>FPK12Classroom102</t>
-  </si>
-  <si>
-    <t>FPK12Section6709</t>
-  </si>
-  <si>
     <t>2610</t>
   </si>
   <si>
@@ -95,22 +86,67 @@
     <t>qa</t>
   </si>
   <si>
-    <t>FPK12School9825</t>
-  </si>
-  <si>
-    <t>FPK12Classroom94</t>
-  </si>
-  <si>
-    <t>FPK12Section3051</t>
-  </si>
-  <si>
-    <t>7814</t>
-  </si>
-  <si>
-    <t>1973</t>
-  </si>
-  <si>
-    <t>4777</t>
+    <t>FPK12School6781</t>
+  </si>
+  <si>
+    <t>FPK12Classroom3937</t>
+  </si>
+  <si>
+    <t>FPK12Section144</t>
+  </si>
+  <si>
+    <t>5720</t>
+  </si>
+  <si>
+    <t>6428</t>
+  </si>
+  <si>
+    <t>2613</t>
+  </si>
+  <si>
+    <t>FPK12School2965</t>
+  </si>
+  <si>
+    <t>FPK12Classroom2887</t>
+  </si>
+  <si>
+    <t>FPK12Section4407</t>
+  </si>
+  <si>
+    <t>1242</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>1299</t>
+  </si>
+  <si>
+    <t>FPK12School2102</t>
+  </si>
+  <si>
+    <t>FPK12Classroom923</t>
+  </si>
+  <si>
+    <t>FPK12Section1793</t>
+  </si>
+  <si>
+    <t>493</t>
+  </si>
+  <si>
+    <t>9419</t>
+  </si>
+  <si>
+    <t>6629</t>
+  </si>
+  <si>
+    <t>FPK12School2044</t>
+  </si>
+  <si>
+    <t>FPK12Classroom4987</t>
+  </si>
+  <si>
+    <t>FPK12Section8844</t>
   </si>
 </sst>
 </file>
@@ -232,7 +268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -275,17 +311,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -306,10 +345,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -601,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,9 +686,15 @@
       <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
+      <c r="A2" t="s" s="21">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s" s="21">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s" s="21">
+        <v>41</v>
+      </c>
       <c r="D2" s="14" t="s">
         <v>9</v>
       </c>
@@ -684,7 +725,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F3" s="14">
         <v>1323</v>
@@ -706,7 +747,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F4" s="14">
         <v>1323</v>
@@ -728,7 +769,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F5" s="14">
         <v>1323</v>
@@ -743,15 +784,18 @@
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -763,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -790,7 +834,7 @@
       <c r="C1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="10" t="s">
@@ -814,14 +858,20 @@
       <c r="M1" s="9"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="19" t="s">
+      <c r="A2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>22</v>
       </c>
+      <c r="C2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2">
         <v>242</v>
@@ -844,11 +894,11 @@
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2">
         <v>242</v>
@@ -867,11 +917,11 @@
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2">
         <v>242</v>
@@ -890,11 +940,11 @@
       <c r="A5" s="4"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2">
         <v>242</v>
@@ -909,16 +959,20 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="20">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s" s="20">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s" s="20">
-        <v>26</v>
-      </c>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/ExcelFiles/LoginDetails.xlsx
+++ b/src/test/resources/ExcelFiles/LoginDetails.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://focalpointk12-my.sharepoint.com/personal/gopi_pagadala_focalpointk12_com/Documents/FPK12 Automation-2024/FPK12-AssessmentCenter/src/test/resources/ExcelFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://focalpointk12-my.sharepoint.com/personal/suresh_rajaboina_focalpointk12_com/Documents/Focalpoint Automation/Benchmarks_AC/src/test/resources/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="13_ncr:1_{6200E935-D564-4C0E-BA26-194115C14345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9764B68A-0102-40CB-84AE-FA94051FBD42}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{EEA9FC90-147D-4620-ADE8-69D720EFC016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8B73FD3-1F8B-4314-9553-78AF3BC24E47}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>FirstName</t>
   </si>
@@ -71,15 +71,6 @@
     <t>fpk12student</t>
   </si>
   <si>
-    <t>2610</t>
-  </si>
-  <si>
-    <t>1283</t>
-  </si>
-  <si>
-    <t>4807</t>
-  </si>
-  <si>
     <t>fpadmin</t>
   </si>
   <si>
@@ -104,33 +95,6 @@
     <t>2613</t>
   </si>
   <si>
-    <t>FPK12School2965</t>
-  </si>
-  <si>
-    <t>FPK12Classroom2887</t>
-  </si>
-  <si>
-    <t>FPK12Section4407</t>
-  </si>
-  <si>
-    <t>1242</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>1299</t>
-  </si>
-  <si>
-    <t>FPK12School2102</t>
-  </si>
-  <si>
-    <t>FPK12Classroom923</t>
-  </si>
-  <si>
-    <t>FPK12Section1793</t>
-  </si>
-  <si>
     <t>493</t>
   </si>
   <si>
@@ -140,13 +104,40 @@
     <t>6629</t>
   </si>
   <si>
-    <t>FPK12School2044</t>
-  </si>
-  <si>
-    <t>FPK12Classroom4987</t>
-  </si>
-  <si>
-    <t>FPK12Section8844</t>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Grade 4</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Testname</t>
+  </si>
+  <si>
+    <t>Automation Test</t>
+  </si>
+  <si>
+    <t>FPK12School5164</t>
+  </si>
+  <si>
+    <t>FPK12Classroom303</t>
+  </si>
+  <si>
+    <t>FPK12Section9660</t>
+  </si>
+  <si>
+    <t>FPK12School9336</t>
+  </si>
+  <si>
+    <t>FPK12Classroom9378</t>
+  </si>
+  <si>
+    <t>FPK12Section9591</t>
   </si>
 </sst>
 </file>
@@ -222,7 +213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -257,6 +248,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <bottom style="thin"/>
     </border>
     <border>
@@ -320,13 +322,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -637,23 +639,23 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="30.0"/>
     <col min="2" max="2" customWidth="true" width="20.0"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="16.0"/>
-    <col min="4" max="4" customWidth="true" style="1" width="19.88671875"/>
-    <col min="5" max="5" customWidth="true" style="1" width="23.77734375"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="20.5546875"/>
-    <col min="8" max="8" customWidth="true" width="31.5546875"/>
+    <col min="4" max="4" customWidth="true" style="1" width="19.90625"/>
+    <col min="5" max="5" customWidth="true" style="1" width="23.81640625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="20.54296875"/>
+    <col min="8" max="8" customWidth="true" width="31.54296875"/>
     <col min="11" max="11" customWidth="true" width="15.0"/>
-    <col min="12" max="12" customWidth="true" width="18.33203125"/>
+    <col min="12" max="12" customWidth="true" width="18.36328125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
@@ -681,19 +683,25 @@
       <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-    </row>
-    <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="21">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s" s="21">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s" s="21">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>9</v>
@@ -713,11 +721,17 @@
       <c r="I2" s="14">
         <v>2024</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -725,7 +739,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F3" s="14">
         <v>1323</v>
@@ -739,7 +753,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -747,7 +761,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F4" s="14">
         <v>1323</v>
@@ -761,7 +775,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -769,7 +783,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F5" s="14">
         <v>1323</v>
@@ -783,7 +797,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -811,20 +825,20 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="30.0"/>
     <col min="2" max="2" customWidth="true" width="20.0"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="16.0"/>
-    <col min="4" max="4" customWidth="true" style="11" width="19.88671875"/>
-    <col min="5" max="5" customWidth="true" style="1" width="23.77734375"/>
-    <col min="7" max="7" customWidth="true" width="11.5546875"/>
-    <col min="8" max="8" customWidth="true" style="1" width="38.44140625"/>
+    <col min="4" max="4" customWidth="true" style="11" width="19.90625"/>
+    <col min="5" max="5" customWidth="true" style="1" width="23.81640625"/>
+    <col min="7" max="7" customWidth="true" width="11.54296875"/>
+    <col min="8" max="8" customWidth="true" style="1" width="38.453125"/>
     <col min="12" max="12" customWidth="true" width="15.0"/>
-    <col min="13" max="13" customWidth="true" width="18.33203125"/>
+    <col min="13" max="13" customWidth="true" width="18.36328125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
@@ -857,21 +871,21 @@
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2">
         <v>242</v>
@@ -890,7 +904,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -898,7 +912,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2">
         <v>242</v>
@@ -913,7 +927,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -921,7 +935,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2">
         <v>242</v>
@@ -936,7 +950,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -944,7 +958,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2">
         <v>242</v>
@@ -959,7 +973,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>

--- a/src/test/resources/ExcelFiles/LoginDetails.xlsx
+++ b/src/test/resources/ExcelFiles/LoginDetails.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://focalpointk12-my.sharepoint.com/personal/gopi_pagadala_focalpointk12_com/Documents/FPK12 Automation-2024/FPK12-AssessmentCenter/src/test/resources/ExcelFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation EC\Assessment_Center_Automation\src\test\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="13_ncr:1_{6200E935-D564-4C0E-BA26-194115C14345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9764B68A-0102-40CB-84AE-FA94051FBD42}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38685860-AF8E-4CC4-B496-A05D6D5932BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="20532" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>FirstName</t>
   </si>
@@ -50,12 +50,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>automation</t>
-  </si>
-  <si>
-    <t>ditrictadmin</t>
-  </si>
-  <si>
     <t>@Abcd1234</t>
   </si>
   <si>
@@ -71,15 +65,6 @@
     <t>fpk12student</t>
   </si>
   <si>
-    <t>2610</t>
-  </si>
-  <si>
-    <t>1283</t>
-  </si>
-  <si>
-    <t>4807</t>
-  </si>
-  <si>
     <t>fpadmin</t>
   </si>
   <si>
@@ -104,33 +89,6 @@
     <t>2613</t>
   </si>
   <si>
-    <t>FPK12School2965</t>
-  </si>
-  <si>
-    <t>FPK12Classroom2887</t>
-  </si>
-  <si>
-    <t>FPK12Section4407</t>
-  </si>
-  <si>
-    <t>1242</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>1299</t>
-  </si>
-  <si>
-    <t>FPK12School2102</t>
-  </si>
-  <si>
-    <t>FPK12Classroom923</t>
-  </si>
-  <si>
-    <t>FPK12Section1793</t>
-  </si>
-  <si>
     <t>493</t>
   </si>
   <si>
@@ -147,13 +105,18 @@
   </si>
   <si>
     <t>FPK12Section8844</t>
+  </si>
+  <si>
+    <t>qt</t>
+  </si>
+  <si>
+    <t>districtadmin01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -222,7 +185,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -257,18 +220,22 @@
       <diagonal/>
     </border>
     <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <bottom style="thin"/>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -320,14 +287,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -634,23 +595,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.0"/>
-    <col min="2" max="2" customWidth="true" width="20.0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.0"/>
-    <col min="4" max="4" customWidth="true" style="1" width="19.88671875"/>
-    <col min="5" max="5" customWidth="true" style="1" width="23.77734375"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="20.5546875"/>
-    <col min="8" max="8" customWidth="true" width="31.5546875"/>
-    <col min="11" max="11" customWidth="true" width="15.0"/>
-    <col min="12" max="12" customWidth="true" width="18.33203125"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5546875" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -673,7 +635,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>6</v>
@@ -686,26 +648,26 @@
       <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="21">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s" s="21">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s" s="21">
-        <v>41</v>
+      <c r="A2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="D2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="14">
+        <v>1322</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="14">
-        <v>1323</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>11</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>7</v>
@@ -722,16 +684,16 @@
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F3" s="14">
         <v>1323</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -744,16 +706,16 @@
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F4" s="14">
         <v>1323</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -766,16 +728,16 @@
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F5" s="14">
         <v>1323</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -813,15 +775,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.0"/>
-    <col min="2" max="2" customWidth="true" width="20.0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.0"/>
-    <col min="4" max="4" customWidth="true" style="11" width="19.88671875"/>
-    <col min="5" max="5" customWidth="true" style="1" width="23.77734375"/>
-    <col min="7" max="7" customWidth="true" width="11.5546875"/>
-    <col min="8" max="8" customWidth="true" style="1" width="38.44140625"/>
-    <col min="12" max="12" customWidth="true" width="15.0"/>
-    <col min="13" max="13" customWidth="true" width="18.33203125"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="38.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -844,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>6</v>
@@ -859,25 +821,25 @@
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2">
         <v>242</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>7</v>
@@ -895,16 +857,16 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2">
         <v>242</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -918,16 +880,16 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
         <v>242</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -941,16 +903,16 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2">
         <v>242</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>

--- a/src/test/resources/ExcelFiles/LoginDetails.xlsx
+++ b/src/test/resources/ExcelFiles/LoginDetails.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SureshRajaboina\OneDrive - FocalPointK12, Inc\Focalpoint Automation\Benchmarks_AC\src\test\resources\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://focalpointk12-my.sharepoint.com/personal/suresh_rajaboina_focalpointk12_com/Documents/Focalpoint Automation/Benchmarks_AC/src/test/resources/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC560599-6880-41B9-ACD0-B6BACB4422AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>FirstName</t>
   </si>
@@ -121,46 +121,7 @@
     <t>Assisted Reading</t>
   </si>
   <si>
-    <t>FPK12School7516</t>
-  </si>
-  <si>
-    <t>FPK12Classroom2398</t>
-  </si>
-  <si>
-    <t>FPK12Section8607</t>
-  </si>
-  <si>
-    <t>8194</t>
-  </si>
-  <si>
-    <t>4346</t>
-  </si>
-  <si>
-    <t>4926</t>
-  </si>
-  <si>
     <t>Choice Test</t>
-  </si>
-  <si>
-    <t>FPK12School2881</t>
-  </si>
-  <si>
-    <t>FPK12Classroom4160</t>
-  </si>
-  <si>
-    <t>FPK12Section5723</t>
-  </si>
-  <si>
-    <t>7796</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2441</t>
-  </si>
-  <si>
-    <t>5341</t>
   </si>
   <si>
     <t>FPK12School9129</t>
@@ -185,7 +146,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -254,7 +214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -299,19 +259,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -374,12 +327,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -688,21 +635,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.0"/>
-    <col min="2" max="2" customWidth="true" width="20.0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.0"/>
-    <col min="4" max="4" customWidth="true" style="1" width="19.90625"/>
-    <col min="5" max="5" customWidth="true" style="1" width="23.81640625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="20.54296875"/>
-    <col min="8" max="8" customWidth="true" width="31.54296875"/>
-    <col min="11" max="11" customWidth="true" width="15.0"/>
-    <col min="12" max="12" customWidth="true" width="18.36328125"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.90625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.54296875" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="18.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -744,14 +691,14 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="24">
-        <v>43</v>
-      </c>
-      <c r="B2" t="s" s="24">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s" s="24">
-        <v>45</v>
+      <c r="A2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>9</v>
@@ -778,7 +725,7 @@
         <v>28</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -789,7 +736,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F3" s="14">
         <v>1323</v>
@@ -811,7 +758,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F4" s="14">
         <v>1323</v>
@@ -833,7 +780,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F5" s="14">
         <v>1323</v>
@@ -877,15 +824,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.0"/>
-    <col min="2" max="2" customWidth="true" width="20.0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.0"/>
-    <col min="4" max="4" customWidth="true" style="11" width="19.90625"/>
-    <col min="5" max="5" customWidth="true" style="1" width="23.81640625"/>
-    <col min="7" max="7" customWidth="true" width="11.54296875"/>
-    <col min="8" max="8" customWidth="true" style="1" width="38.453125"/>
-    <col min="12" max="12" customWidth="true" width="15.0"/>
-    <col min="13" max="13" customWidth="true" width="18.36328125"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.90625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="23.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" customWidth="1"/>
+    <col min="8" max="8" width="38.453125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="18.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">

--- a/src/test/resources/ExcelFiles/LoginDetails.xlsx
+++ b/src/test/resources/ExcelFiles/LoginDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://focalpointk12-my.sharepoint.com/personal/gopi_pagadala_focalpointk12_com/Documents/FPK12 Automation-2024/FPK12-AssessmentCenter/src/test/resources/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="13_ncr:1_{6200E935-D564-4C0E-BA26-194115C14345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9764B68A-0102-40CB-84AE-FA94051FBD42}"/>
+  <xr:revisionPtr revIDLastSave="175" documentId="13_ncr:1_{6200E935-D564-4C0E-BA26-194115C14345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B3CF720-9C74-49E9-A73C-754D09A3B359}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>FirstName</t>
   </si>
@@ -71,15 +71,6 @@
     <t>fpk12student</t>
   </si>
   <si>
-    <t>2610</t>
-  </si>
-  <si>
-    <t>1283</t>
-  </si>
-  <si>
-    <t>4807</t>
-  </si>
-  <si>
     <t>fpadmin</t>
   </si>
   <si>
@@ -104,49 +95,208 @@
     <t>2613</t>
   </si>
   <si>
-    <t>FPK12School2965</t>
-  </si>
-  <si>
-    <t>FPK12Classroom2887</t>
-  </si>
-  <si>
-    <t>FPK12Section4407</t>
-  </si>
-  <si>
-    <t>1242</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>1299</t>
-  </si>
-  <si>
-    <t>FPK12School2102</t>
-  </si>
-  <si>
-    <t>FPK12Classroom923</t>
-  </si>
-  <si>
-    <t>FPK12Section1793</t>
-  </si>
-  <si>
-    <t>493</t>
-  </si>
-  <si>
-    <t>9419</t>
-  </si>
-  <si>
-    <t>6629</t>
-  </si>
-  <si>
-    <t>FPK12School2044</t>
-  </si>
-  <si>
-    <t>FPK12Classroom4987</t>
-  </si>
-  <si>
-    <t>FPK12Section8844</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>3628</t>
+  </si>
+  <si>
+    <t>8007</t>
+  </si>
+  <si>
+    <t>FPK12School8433</t>
+  </si>
+  <si>
+    <t>FPK12Classroom7497</t>
+  </si>
+  <si>
+    <t>FPK12Section8962</t>
+  </si>
+  <si>
+    <t>TestName</t>
+  </si>
+  <si>
+    <t>Automation Test</t>
+  </si>
+  <si>
+    <t>FPK12School1355</t>
+  </si>
+  <si>
+    <t>FPK12Classroom9810</t>
+  </si>
+  <si>
+    <t>FPK12Section4735</t>
+  </si>
+  <si>
+    <t>FPK12School6260</t>
+  </si>
+  <si>
+    <t>FPK12Classroom8773</t>
+  </si>
+  <si>
+    <t>FPK12Section6809</t>
+  </si>
+  <si>
+    <t>FPK12School5336</t>
+  </si>
+  <si>
+    <t>FPK12Classroom5317</t>
+  </si>
+  <si>
+    <t>FPK12Section8155</t>
+  </si>
+  <si>
+    <t>FPK12School661</t>
+  </si>
+  <si>
+    <t>FPK12Classroom469</t>
+  </si>
+  <si>
+    <t>FPK12Section4805</t>
+  </si>
+  <si>
+    <t>529</t>
+  </si>
+  <si>
+    <t>3010</t>
+  </si>
+  <si>
+    <t>8041</t>
+  </si>
+  <si>
+    <t>FPK12School7501</t>
+  </si>
+  <si>
+    <t>FPK12Classroom7073</t>
+  </si>
+  <si>
+    <t>FPK12Section7276</t>
+  </si>
+  <si>
+    <t>4074</t>
+  </si>
+  <si>
+    <t>7398</t>
+  </si>
+  <si>
+    <t>5625</t>
+  </si>
+  <si>
+    <t>FPK12School3572</t>
+  </si>
+  <si>
+    <t>FPK12Classroom4985</t>
+  </si>
+  <si>
+    <t>FPK12Section4002</t>
+  </si>
+  <si>
+    <t>1684</t>
+  </si>
+  <si>
+    <t>7526</t>
+  </si>
+  <si>
+    <t>5430</t>
+  </si>
+  <si>
+    <t>FPK12School9251</t>
+  </si>
+  <si>
+    <t>FPK12Classroom1474</t>
+  </si>
+  <si>
+    <t>FPK12Section3047</t>
+  </si>
+  <si>
+    <t>9062</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>3748</t>
+  </si>
+  <si>
+    <t>FPK12School1968</t>
+  </si>
+  <si>
+    <t>FPK12Classroom9556</t>
+  </si>
+  <si>
+    <t>FPK12Section7200</t>
+  </si>
+  <si>
+    <t>6933</t>
+  </si>
+  <si>
+    <t>3164</t>
+  </si>
+  <si>
+    <t>5810</t>
+  </si>
+  <si>
+    <t>FPK12School5345</t>
+  </si>
+  <si>
+    <t>FPK12Classroom8434</t>
+  </si>
+  <si>
+    <t>FPK12Section9076</t>
+  </si>
+  <si>
+    <t>5773</t>
+  </si>
+  <si>
+    <t>6690</t>
+  </si>
+  <si>
+    <t>4636</t>
+  </si>
+  <si>
+    <t>FPK12School460</t>
+  </si>
+  <si>
+    <t>FPK12Classroom4783</t>
+  </si>
+  <si>
+    <t>FPK12Section4086</t>
+  </si>
+  <si>
+    <t>5343</t>
+  </si>
+  <si>
+    <t>2896</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>FPK12School2308</t>
+  </si>
+  <si>
+    <t>FPK12Classroom1682</t>
+  </si>
+  <si>
+    <t>FPK12Section524</t>
+  </si>
+  <si>
+    <t>FPK12School9124</t>
+  </si>
+  <si>
+    <t>FPK12Classroom8864</t>
+  </si>
+  <si>
+    <t>FPK12Section2133</t>
+  </si>
+  <si>
+    <t>789</t>
+  </si>
+  <si>
+    <t>5338</t>
+  </si>
+  <si>
+    <t>3587</t>
   </si>
 </sst>
 </file>
@@ -222,7 +372,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -257,6 +407,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <bottom style="thin"/>
     </border>
     <border>
@@ -268,7 +429,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -320,13 +481,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -345,6 +539,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -637,7 +835,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,6 +847,7 @@
     <col min="5" max="5" customWidth="true" style="1" width="23.77734375"/>
     <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="20.5546875"/>
     <col min="8" max="8" customWidth="true" width="31.5546875"/>
+    <col min="10" max="10" customWidth="true" width="16.33203125"/>
     <col min="11" max="11" customWidth="true" width="15.0"/>
     <col min="12" max="12" customWidth="true" width="18.33203125"/>
   </cols>
@@ -681,19 +880,21 @@
       <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8"/>
+      <c r="J1" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="21">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s" s="21">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s" s="21">
-        <v>41</v>
+      <c r="A2" t="s" s="32">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s" s="32">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s" s="32">
+        <v>88</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>9</v>
@@ -713,7 +914,9 @@
       <c r="I2" s="14">
         <v>2024</v>
       </c>
-      <c r="J2" s="6"/>
+      <c r="J2" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
@@ -725,7 +928,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="F3" s="14">
         <v>1323</v>
@@ -747,7 +950,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="F4" s="14">
         <v>1323</v>
@@ -769,7 +972,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="F5" s="14">
         <v>1323</v>
@@ -859,19 +1062,19 @@
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2">
         <v>242</v>
@@ -898,7 +1101,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2">
         <v>242</v>
@@ -921,7 +1124,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2">
         <v>242</v>
@@ -944,7 +1147,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2">
         <v>242</v>

--- a/src/test/resources/ExcelFiles/LoginDetails.xlsx
+++ b/src/test/resources/ExcelFiles/LoginDetails.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaiTejaswiMandla\eclipse-workspace\FPK12_AC\src\test\resources\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://focalpointk12-my.sharepoint.com/personal/suresh_rajaboina_focalpointk12_com/Documents/Focalpoint Automation/Benchmarks_AC/src/test/resources/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D05EDA-5362-4BBF-9672-321EA613B320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{60D05EDA-5362-4BBF-9672-321EA613B320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B36E334-B346-4E6E-BC6C-202090AB6295}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="118">
   <si>
     <t>FirstName</t>
   </si>
@@ -95,60 +95,6 @@
     <t>2613</t>
   </si>
   <si>
-    <t>493</t>
-  </si>
-  <si>
-    <t>9419</t>
-  </si>
-  <si>
-    <t>6629</t>
-  </si>
-  <si>
-    <t>FPK12School3183</t>
-  </si>
-  <si>
-    <t>FPK12Classroom3982</t>
-  </si>
-  <si>
-    <t>FPK12Section9429</t>
-  </si>
-  <si>
-    <t>FPK12School363</t>
-  </si>
-  <si>
-    <t>FPK12Classroom6241</t>
-  </si>
-  <si>
-    <t>FPK12Section9863</t>
-  </si>
-  <si>
-    <t>FPK12School9197</t>
-  </si>
-  <si>
-    <t>FPK12Classroom8807</t>
-  </si>
-  <si>
-    <t>FPK12Section1531</t>
-  </si>
-  <si>
-    <t>FPK12School198</t>
-  </si>
-  <si>
-    <t>FPK12Classroom3843</t>
-  </si>
-  <si>
-    <t>FPK12Section7223</t>
-  </si>
-  <si>
-    <t>FPK12School3608</t>
-  </si>
-  <si>
-    <t>FPK12Classroom789</t>
-  </si>
-  <si>
-    <t>FPK12Section4523</t>
-  </si>
-  <si>
     <t>FPK12School2643</t>
   </si>
   <si>
@@ -165,6 +111,270 @@
   </si>
   <si>
     <t>1848</t>
+  </si>
+  <si>
+    <t>Testname</t>
+  </si>
+  <si>
+    <t>choice test</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Grade 1</t>
+  </si>
+  <si>
+    <t>Assisted Reading</t>
+  </si>
+  <si>
+    <t>FPK12School6215</t>
+  </si>
+  <si>
+    <t>FPK12Section7641</t>
+  </si>
+  <si>
+    <t>1532</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>9577</t>
+  </si>
+  <si>
+    <t>1162</t>
+  </si>
+  <si>
+    <t>FPK12School1107</t>
+  </si>
+  <si>
+    <t>FPK12Section4389</t>
+  </si>
+  <si>
+    <t>3559</t>
+  </si>
+  <si>
+    <t>3094</t>
+  </si>
+  <si>
+    <t>FPK12School8595</t>
+  </si>
+  <si>
+    <t>FPK12Section1825</t>
+  </si>
+  <si>
+    <t>5421</t>
+  </si>
+  <si>
+    <t>FPK12School1917</t>
+  </si>
+  <si>
+    <t>FPK12Section886</t>
+  </si>
+  <si>
+    <t>8254</t>
+  </si>
+  <si>
+    <t>7717</t>
+  </si>
+  <si>
+    <t>9647</t>
+  </si>
+  <si>
+    <t>FPK12School2787</t>
+  </si>
+  <si>
+    <t>FPK12Section5087</t>
+  </si>
+  <si>
+    <t>2376</t>
+  </si>
+  <si>
+    <t>3811</t>
+  </si>
+  <si>
+    <t>4301</t>
+  </si>
+  <si>
+    <t>FPK12School1</t>
+  </si>
+  <si>
+    <t>FPK12Section7124</t>
+  </si>
+  <si>
+    <t>1081</t>
+  </si>
+  <si>
+    <t>2051</t>
+  </si>
+  <si>
+    <t>5632</t>
+  </si>
+  <si>
+    <t>FPK12School5554</t>
+  </si>
+  <si>
+    <t>FPK12Section743</t>
+  </si>
+  <si>
+    <t>2659</t>
+  </si>
+  <si>
+    <t>8314</t>
+  </si>
+  <si>
+    <t>3497</t>
+  </si>
+  <si>
+    <t>FPK12School6903</t>
+  </si>
+  <si>
+    <t>FPK12Section4455</t>
+  </si>
+  <si>
+    <t>4945</t>
+  </si>
+  <si>
+    <t>2705</t>
+  </si>
+  <si>
+    <t>4955</t>
+  </si>
+  <si>
+    <t>FPK12School3533</t>
+  </si>
+  <si>
+    <t>FPK12Section3004</t>
+  </si>
+  <si>
+    <t>9212</t>
+  </si>
+  <si>
+    <t>6046</t>
+  </si>
+  <si>
+    <t>2644</t>
+  </si>
+  <si>
+    <t>FPK12School9983</t>
+  </si>
+  <si>
+    <t>FPK12Section1223</t>
+  </si>
+  <si>
+    <t>9887</t>
+  </si>
+  <si>
+    <t>7945</t>
+  </si>
+  <si>
+    <t>1418</t>
+  </si>
+  <si>
+    <t>FPK12School6443</t>
+  </si>
+  <si>
+    <t>FPK12Section6457</t>
+  </si>
+  <si>
+    <t>9253</t>
+  </si>
+  <si>
+    <t>4763</t>
+  </si>
+  <si>
+    <t>7918</t>
+  </si>
+  <si>
+    <t>FPK12School1949</t>
+  </si>
+  <si>
+    <t>FPK12Section3352</t>
+  </si>
+  <si>
+    <t>4624</t>
+  </si>
+  <si>
+    <t>9421</t>
+  </si>
+  <si>
+    <t>1684</t>
+  </si>
+  <si>
+    <t>FPK12School2613</t>
+  </si>
+  <si>
+    <t>FPK12Section8710</t>
+  </si>
+  <si>
+    <t>6700</t>
+  </si>
+  <si>
+    <t>1833</t>
+  </si>
+  <si>
+    <t>4143</t>
+  </si>
+  <si>
+    <t>FPK12School2662</t>
+  </si>
+  <si>
+    <t>FPK12Section3942</t>
+  </si>
+  <si>
+    <t>9308</t>
+  </si>
+  <si>
+    <t>6102</t>
+  </si>
+  <si>
+    <t>6853</t>
+  </si>
+  <si>
+    <t>FPK12School8966</t>
+  </si>
+  <si>
+    <t>FPK12Section8015</t>
+  </si>
+  <si>
+    <t>FPK12School4765</t>
+  </si>
+  <si>
+    <t>FPK12Section9327</t>
+  </si>
+  <si>
+    <t>2459</t>
+  </si>
+  <si>
+    <t>8753</t>
+  </si>
+  <si>
+    <t>1488</t>
+  </si>
+  <si>
+    <t>FPK12School7771</t>
+  </si>
+  <si>
+    <t>FPK12Section5709</t>
+  </si>
+  <si>
+    <t>9416</t>
+  </si>
+  <si>
+    <t>1602</t>
+  </si>
+  <si>
+    <t>FPK12School4401</t>
+  </si>
+  <si>
+    <t>FPK12Section4239</t>
+  </si>
+  <si>
+    <t>664</t>
   </si>
 </sst>
 </file>
@@ -172,7 +382,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +428,12 @@
       <color rgb="FF333335"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -303,7 +519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -355,10 +571,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
@@ -681,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -695,6 +951,7 @@
     <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="20.54296875"/>
     <col min="8" max="8" customWidth="true" width="31.54296875"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="50.54296875"/>
+    <col min="10" max="10" customWidth="true" width="9.6328125"/>
     <col min="11" max="11" customWidth="true" width="15.0"/>
     <col min="12" max="12" customWidth="true" width="18.36328125"/>
   </cols>
@@ -727,19 +984,25 @@
       <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="J1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="25">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s" s="25">
-        <v>43</v>
-      </c>
-      <c r="C2" t="s" s="25">
-        <v>44</v>
+      <c r="A2" t="s" s="39">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s" s="39">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s" s="39">
+        <v>116</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>9</v>
@@ -759,9 +1022,15 @@
       <c r="I2" s="14">
         <v>2024</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="J2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
@@ -769,7 +1038,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="F3" s="14">
         <v>1323</v>
@@ -785,13 +1054,11 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F4" s="14">
         <v>1323</v>
@@ -809,11 +1076,9 @@
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F5" s="14">
         <v>1323</v>

--- a/src/test/resources/ExcelFiles/LoginDetails.xlsx
+++ b/src/test/resources/ExcelFiles/LoginDetails.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://focalpointk12-my.sharepoint.com/personal/gopi_pagadala_focalpointk12_com/Documents/FPK12 Automation-2024/FPK12-AssessmentCenter/src/test/resources/ExcelFiles/"/>
     </mc:Choice>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>FirstName</t>
   </si>
@@ -95,190 +95,10 @@
     <t>2613</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>3628</t>
-  </si>
-  <si>
-    <t>8007</t>
-  </si>
-  <si>
-    <t>FPK12School8433</t>
-  </si>
-  <si>
-    <t>FPK12Classroom7497</t>
-  </si>
-  <si>
-    <t>FPK12Section8962</t>
-  </si>
-  <si>
     <t>TestName</t>
   </si>
   <si>
     <t>Automation Test</t>
-  </si>
-  <si>
-    <t>FPK12School1355</t>
-  </si>
-  <si>
-    <t>FPK12Classroom9810</t>
-  </si>
-  <si>
-    <t>FPK12Section4735</t>
-  </si>
-  <si>
-    <t>FPK12School6260</t>
-  </si>
-  <si>
-    <t>FPK12Classroom8773</t>
-  </si>
-  <si>
-    <t>FPK12Section6809</t>
-  </si>
-  <si>
-    <t>FPK12School5336</t>
-  </si>
-  <si>
-    <t>FPK12Classroom5317</t>
-  </si>
-  <si>
-    <t>FPK12Section8155</t>
-  </si>
-  <si>
-    <t>FPK12School661</t>
-  </si>
-  <si>
-    <t>FPK12Classroom469</t>
-  </si>
-  <si>
-    <t>FPK12Section4805</t>
-  </si>
-  <si>
-    <t>529</t>
-  </si>
-  <si>
-    <t>3010</t>
-  </si>
-  <si>
-    <t>8041</t>
-  </si>
-  <si>
-    <t>FPK12School7501</t>
-  </si>
-  <si>
-    <t>FPK12Classroom7073</t>
-  </si>
-  <si>
-    <t>FPK12Section7276</t>
-  </si>
-  <si>
-    <t>4074</t>
-  </si>
-  <si>
-    <t>7398</t>
-  </si>
-  <si>
-    <t>5625</t>
-  </si>
-  <si>
-    <t>FPK12School3572</t>
-  </si>
-  <si>
-    <t>FPK12Classroom4985</t>
-  </si>
-  <si>
-    <t>FPK12Section4002</t>
-  </si>
-  <si>
-    <t>1684</t>
-  </si>
-  <si>
-    <t>7526</t>
-  </si>
-  <si>
-    <t>5430</t>
-  </si>
-  <si>
-    <t>FPK12School9251</t>
-  </si>
-  <si>
-    <t>FPK12Classroom1474</t>
-  </si>
-  <si>
-    <t>FPK12Section3047</t>
-  </si>
-  <si>
-    <t>9062</t>
-  </si>
-  <si>
-    <t>263</t>
-  </si>
-  <si>
-    <t>3748</t>
-  </si>
-  <si>
-    <t>FPK12School1968</t>
-  </si>
-  <si>
-    <t>FPK12Classroom9556</t>
-  </si>
-  <si>
-    <t>FPK12Section7200</t>
-  </si>
-  <si>
-    <t>6933</t>
-  </si>
-  <si>
-    <t>3164</t>
-  </si>
-  <si>
-    <t>5810</t>
-  </si>
-  <si>
-    <t>FPK12School5345</t>
-  </si>
-  <si>
-    <t>FPK12Classroom8434</t>
-  </si>
-  <si>
-    <t>FPK12Section9076</t>
-  </si>
-  <si>
-    <t>5773</t>
-  </si>
-  <si>
-    <t>6690</t>
-  </si>
-  <si>
-    <t>4636</t>
-  </si>
-  <si>
-    <t>FPK12School460</t>
-  </si>
-  <si>
-    <t>FPK12Classroom4783</t>
-  </si>
-  <si>
-    <t>FPK12Section4086</t>
-  </si>
-  <si>
-    <t>5343</t>
-  </si>
-  <si>
-    <t>2896</t>
-  </si>
-  <si>
-    <t>316</t>
-  </si>
-  <si>
-    <t>FPK12School2308</t>
-  </si>
-  <si>
-    <t>FPK12Classroom1682</t>
-  </si>
-  <si>
-    <t>FPK12Section524</t>
   </si>
   <si>
     <t>FPK12School9124</t>
@@ -303,7 +123,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -372,7 +191,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -417,19 +236,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -481,47 +293,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -835,21 +611,21 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.0"/>
-    <col min="2" max="2" customWidth="true" width="20.0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.0"/>
-    <col min="4" max="4" customWidth="true" style="1" width="19.88671875"/>
-    <col min="5" max="5" customWidth="true" style="1" width="23.77734375"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="20.5546875"/>
-    <col min="8" max="8" customWidth="true" width="31.5546875"/>
-    <col min="10" max="10" customWidth="true" width="16.33203125"/>
-    <col min="11" max="11" customWidth="true" width="15.0"/>
-    <col min="12" max="12" customWidth="true" width="18.33203125"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5546875" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -880,21 +656,21 @@
       <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="20" t="s">
-        <v>30</v>
+      <c r="J1" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="32">
-        <v>86</v>
-      </c>
-      <c r="B2" t="s" s="32">
-        <v>87</v>
-      </c>
-      <c r="C2" t="s" s="32">
-        <v>88</v>
+      <c r="A2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>9</v>
@@ -915,7 +691,7 @@
         <v>2024</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -928,7 +704,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="F3" s="14">
         <v>1323</v>
@@ -950,7 +726,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F4" s="14">
         <v>1323</v>
@@ -972,7 +748,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="F5" s="14">
         <v>1323</v>
@@ -1016,15 +792,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.0"/>
-    <col min="2" max="2" customWidth="true" width="20.0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.0"/>
-    <col min="4" max="4" customWidth="true" style="11" width="19.88671875"/>
-    <col min="5" max="5" customWidth="true" style="1" width="23.77734375"/>
-    <col min="7" max="7" customWidth="true" width="11.5546875"/>
-    <col min="8" max="8" customWidth="true" style="1" width="38.44140625"/>
-    <col min="12" max="12" customWidth="true" width="15.0"/>
-    <col min="13" max="13" customWidth="true" width="18.33203125"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="38.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">

--- a/src/test/resources/ExcelFiles/LoginDetails.xlsx
+++ b/src/test/resources/ExcelFiles/LoginDetails.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://focalpointk12-my.sharepoint.com/personal/gopi_pagadala_focalpointk12_com/Documents/FPK12 Automation-2024/FPK12-AssessmentCenter/src/test/resources/ExcelFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://focalpointk12-my.sharepoint.com/personal/suresh_rajaboina_focalpointk12_com/Documents/Focalpoint Automation/Benchmarks_AC/src/test/resources/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B970878B-C7B9-4D19-AF58-5FCB731A7441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{B970878B-C7B9-4D19-AF58-5FCB731A7441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1695E1F6-6F8D-4763-80FC-57093163C271}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="97">
   <si>
     <t>FirstName</t>
   </si>
@@ -116,25 +116,209 @@
     <t>Assisted Reading</t>
   </si>
   <si>
-    <t>FPK12School2017</t>
-  </si>
-  <si>
-    <t>FPK12Section8105</t>
-  </si>
-  <si>
-    <t>3822</t>
-  </si>
-  <si>
-    <t>4536</t>
-  </si>
-  <si>
-    <t>2890</t>
+    <t>FPK12School7147</t>
+  </si>
+  <si>
+    <t>FPK12Section7763</t>
+  </si>
+  <si>
+    <t>4131</t>
+  </si>
+  <si>
+    <t>3348</t>
+  </si>
+  <si>
+    <t>3911</t>
+  </si>
+  <si>
+    <t>FPK12School4921</t>
+  </si>
+  <si>
+    <t>FPK12Section6556</t>
+  </si>
+  <si>
+    <t>4489</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2348</t>
+  </si>
+  <si>
+    <t>9125</t>
+  </si>
+  <si>
+    <t>FPK12School5562</t>
+  </si>
+  <si>
+    <t>FPK12Section3484</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>8786</t>
+  </si>
+  <si>
+    <t>5568</t>
+  </si>
+  <si>
+    <t>FPK12School1522</t>
+  </si>
+  <si>
+    <t>FPK12Section3783</t>
+  </si>
+  <si>
+    <t>8729</t>
+  </si>
+  <si>
+    <t>8663</t>
+  </si>
+  <si>
+    <t>3593</t>
+  </si>
+  <si>
+    <t>FPK12School9451</t>
+  </si>
+  <si>
+    <t>FPK12Section2229</t>
+  </si>
+  <si>
+    <t>9891</t>
+  </si>
+  <si>
+    <t>7206</t>
+  </si>
+  <si>
+    <t>2714</t>
+  </si>
+  <si>
+    <t>FPK12School6177</t>
+  </si>
+  <si>
+    <t>FPK12Section7273</t>
+  </si>
+  <si>
+    <t>1201</t>
+  </si>
+  <si>
+    <t>3524</t>
+  </si>
+  <si>
+    <t>1279</t>
+  </si>
+  <si>
+    <t>FPK12School6605</t>
+  </si>
+  <si>
+    <t>FPK12Section4390</t>
+  </si>
+  <si>
+    <t>5311</t>
+  </si>
+  <si>
+    <t>9155</t>
+  </si>
+  <si>
+    <t>6030</t>
+  </si>
+  <si>
+    <t>FPK12School8413</t>
+  </si>
+  <si>
+    <t>FPK12Section5281</t>
+  </si>
+  <si>
+    <t>6560</t>
+  </si>
+  <si>
+    <t>9370</t>
+  </si>
+  <si>
+    <t>4686</t>
+  </si>
+  <si>
+    <t>FPK12School6987</t>
+  </si>
+  <si>
+    <t>FPK12Section8489</t>
+  </si>
+  <si>
+    <t>5885</t>
+  </si>
+  <si>
+    <t>2276</t>
+  </si>
+  <si>
+    <t>2971</t>
+  </si>
+  <si>
+    <t>FPK12School1293</t>
+  </si>
+  <si>
+    <t>FPK12Section3474</t>
+  </si>
+  <si>
+    <t>845</t>
+  </si>
+  <si>
+    <t>1486</t>
+  </si>
+  <si>
+    <t>1585</t>
+  </si>
+  <si>
+    <t>FPK12School5609</t>
+  </si>
+  <si>
+    <t>FPK12Section1200</t>
+  </si>
+  <si>
+    <t>2800</t>
+  </si>
+  <si>
+    <t>9795</t>
+  </si>
+  <si>
+    <t>4711</t>
+  </si>
+  <si>
+    <t>FPK12School7075</t>
+  </si>
+  <si>
+    <t>FPK12Section2605</t>
+  </si>
+  <si>
+    <t>1091</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>8277</t>
+  </si>
+  <si>
+    <t>FPK12School8887</t>
+  </si>
+  <si>
+    <t>FPK12Section1402</t>
+  </si>
+  <si>
+    <t>5290</t>
+  </si>
+  <si>
+    <t>7883</t>
+  </si>
+  <si>
+    <t>4430</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -203,7 +387,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -248,12 +432,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -305,11 +496,47 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -327,6 +554,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -619,24 +850,24 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.5546875" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="30.0"/>
+    <col min="2" max="2" customWidth="true" width="20.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.0"/>
+    <col min="4" max="4" customWidth="true" style="1" width="19.90625"/>
+    <col min="5" max="5" customWidth="true" style="1" width="23.81640625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="20.54296875"/>
+    <col min="8" max="8" customWidth="true" width="31.54296875"/>
+    <col min="10" max="10" customWidth="true" width="16.36328125"/>
+    <col min="11" max="11" customWidth="true" width="15.0"/>
+    <col min="12" max="12" customWidth="true" width="18.36328125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
@@ -667,22 +898,22 @@
       <c r="J1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s" s="32">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s" s="32">
         <v>26</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>32</v>
+      <c r="C2" t="s" s="32">
+        <v>93</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>9</v>
@@ -712,7 +943,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -720,7 +951,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="F3" s="13">
         <v>1323</v>
@@ -734,7 +965,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -742,7 +973,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="F4" s="13">
         <v>1323</v>
@@ -756,7 +987,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -764,7 +995,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="F5" s="13">
         <v>1323</v>
@@ -778,7 +1009,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -802,24 +1033,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
-    <col min="8" max="8" width="38.44140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="30.0"/>
+    <col min="2" max="2" customWidth="true" width="20.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.0"/>
+    <col min="4" max="4" customWidth="true" style="10" width="19.90625"/>
+    <col min="5" max="5" customWidth="true" style="1" width="23.81640625"/>
+    <col min="7" max="7" customWidth="true" width="11.54296875"/>
+    <col min="8" max="8" customWidth="true" style="1" width="38.453125"/>
+    <col min="11" max="11" customWidth="true" width="14.1796875"/>
+    <col min="12" max="12" customWidth="true" width="15.0"/>
+    <col min="13" max="13" customWidth="true" width="18.36328125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
@@ -847,16 +1079,18 @@
       <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="8"/>
+      <c r="L1" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="M1" s="8"/>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>18</v>
       </c>
@@ -884,12 +1118,18 @@
       <c r="I2" s="13">
         <v>2024</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -912,7 +1152,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -935,7 +1175,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -958,7 +1198,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>

--- a/src/test/resources/ExcelFiles/LoginDetails.xlsx
+++ b/src/test/resources/ExcelFiles/LoginDetails.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://focalpointk12-my.sharepoint.com/personal/suresh_rajaboina_focalpointk12_com/Documents/Focalpoint Automation/Benchmarks_AC/src/test/resources/ExcelFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SureshRajaboina\OneDrive - FocalPointK12, Inc\Focalpoint Automation\Benchmarks_AC\src\test\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{B970878B-C7B9-4D19-AF58-5FCB731A7441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1695E1F6-6F8D-4763-80FC-57093163C271}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15314BBB-5BFE-4A0E-ABF7-EBB13F39B56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4660" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
   <si>
     <t>FirstName</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Automation Test</t>
   </si>
   <si>
-    <t>FPK12Classroom8989</t>
-  </si>
-  <si>
     <t>Grade</t>
   </si>
   <si>
@@ -116,202 +113,52 @@
     <t>Assisted Reading</t>
   </si>
   <si>
-    <t>FPK12School7147</t>
-  </si>
-  <si>
-    <t>FPK12Section7763</t>
-  </si>
-  <si>
-    <t>4131</t>
-  </si>
-  <si>
-    <t>3348</t>
-  </si>
-  <si>
-    <t>3911</t>
-  </si>
-  <si>
-    <t>FPK12School4921</t>
-  </si>
-  <si>
-    <t>FPK12Section6556</t>
-  </si>
-  <si>
-    <t>4489</t>
+    <t>Test For Automation</t>
+  </si>
+  <si>
+    <t>FPK12School17860</t>
+  </si>
+  <si>
+    <t>FPK12Classroom88150</t>
+  </si>
+  <si>
+    <t>FPK12Section912</t>
+  </si>
+  <si>
+    <t>67360</t>
+  </si>
+  <si>
+    <t>74205</t>
+  </si>
+  <si>
+    <t>94358</t>
+  </si>
+  <si>
+    <t>Grade 4</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>FPK12School56091</t>
+  </si>
+  <si>
+    <t>FPK12Classroom4177</t>
+  </si>
+  <si>
+    <t>FPK12Section7980</t>
+  </si>
+  <si>
+    <t>48125</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>2348</t>
-  </si>
-  <si>
-    <t>9125</t>
-  </si>
-  <si>
-    <t>FPK12School5562</t>
-  </si>
-  <si>
-    <t>FPK12Section3484</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>8786</t>
-  </si>
-  <si>
-    <t>5568</t>
-  </si>
-  <si>
-    <t>FPK12School1522</t>
-  </si>
-  <si>
-    <t>FPK12Section3783</t>
-  </si>
-  <si>
-    <t>8729</t>
-  </si>
-  <si>
-    <t>8663</t>
-  </si>
-  <si>
-    <t>3593</t>
-  </si>
-  <si>
-    <t>FPK12School9451</t>
-  </si>
-  <si>
-    <t>FPK12Section2229</t>
-  </si>
-  <si>
-    <t>9891</t>
-  </si>
-  <si>
-    <t>7206</t>
-  </si>
-  <si>
-    <t>2714</t>
-  </si>
-  <si>
-    <t>FPK12School6177</t>
-  </si>
-  <si>
-    <t>FPK12Section7273</t>
-  </si>
-  <si>
-    <t>1201</t>
-  </si>
-  <si>
-    <t>3524</t>
-  </si>
-  <si>
-    <t>1279</t>
-  </si>
-  <si>
-    <t>FPK12School6605</t>
-  </si>
-  <si>
-    <t>FPK12Section4390</t>
-  </si>
-  <si>
-    <t>5311</t>
-  </si>
-  <si>
-    <t>9155</t>
-  </si>
-  <si>
-    <t>6030</t>
-  </si>
-  <si>
-    <t>FPK12School8413</t>
-  </si>
-  <si>
-    <t>FPK12Section5281</t>
-  </si>
-  <si>
-    <t>6560</t>
-  </si>
-  <si>
-    <t>9370</t>
-  </si>
-  <si>
-    <t>4686</t>
-  </si>
-  <si>
-    <t>FPK12School6987</t>
-  </si>
-  <si>
-    <t>FPK12Section8489</t>
-  </si>
-  <si>
-    <t>5885</t>
-  </si>
-  <si>
-    <t>2276</t>
-  </si>
-  <si>
-    <t>2971</t>
-  </si>
-  <si>
-    <t>FPK12School1293</t>
-  </si>
-  <si>
-    <t>FPK12Section3474</t>
-  </si>
-  <si>
-    <t>845</t>
-  </si>
-  <si>
-    <t>1486</t>
-  </si>
-  <si>
-    <t>1585</t>
-  </si>
-  <si>
-    <t>FPK12School5609</t>
-  </si>
-  <si>
-    <t>FPK12Section1200</t>
-  </si>
-  <si>
-    <t>2800</t>
-  </si>
-  <si>
-    <t>9795</t>
-  </si>
-  <si>
-    <t>4711</t>
-  </si>
-  <si>
-    <t>FPK12School7075</t>
-  </si>
-  <si>
-    <t>FPK12Section2605</t>
-  </si>
-  <si>
-    <t>1091</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>8277</t>
-  </si>
-  <si>
-    <t>FPK12School8887</t>
-  </si>
-  <si>
-    <t>FPK12Section1402</t>
-  </si>
-  <si>
-    <t>5290</t>
-  </si>
-  <si>
-    <t>7883</t>
-  </si>
-  <si>
-    <t>4430</t>
+    <t>12631</t>
+  </si>
+  <si>
+    <t>31565</t>
   </si>
 </sst>
 </file>
@@ -444,7 +291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -501,39 +348,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -554,10 +368,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -849,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -862,7 +672,7 @@
     <col min="5" max="5" customWidth="true" style="1" width="23.81640625"/>
     <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="20.54296875"/>
     <col min="8" max="8" customWidth="true" width="31.54296875"/>
-    <col min="10" max="10" customWidth="true" width="16.36328125"/>
+    <col min="10" max="10" customWidth="true" width="18.6328125"/>
     <col min="11" max="11" customWidth="true" width="15.0"/>
     <col min="12" max="12" customWidth="true" width="18.36328125"/>
   </cols>
@@ -899,21 +709,21 @@
         <v>24</v>
       </c>
       <c r="K1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="19" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="32">
-        <v>92</v>
-      </c>
-      <c r="B2" t="s" s="32">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s" s="32">
-        <v>93</v>
+      <c r="A2" t="s" s="21">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s" s="21">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s" s="21">
+        <v>41</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>9</v>
@@ -934,13 +744,13 @@
         <v>2024</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -951,7 +761,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="F3" s="13">
         <v>1323</v>
@@ -973,7 +783,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="F4" s="13">
         <v>1323</v>
@@ -995,7 +805,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="F5" s="13">
         <v>1323</v>
@@ -1080,10 +890,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="19" t="s">
         <v>27</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>28</v>
       </c>
       <c r="L1" s="18" t="s">
         <v>24</v>
@@ -1119,10 +929,10 @@
         <v>2024</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>25</v>

--- a/src/test/resources/ExcelFiles/LoginDetails.xlsx
+++ b/src/test/resources/ExcelFiles/LoginDetails.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://focalpointk12-my.sharepoint.com/personal/suresh_rajaboina_focalpointk12_com/Documents/Focalpoint Automation/Benchmarks_AC/src/test/resources/ExcelFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GopiPagadala\OneDrive - FocalPointK12, Inc\FPK12 Automation-2024\FPK12-AssessmentCenter\src\test\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{B970878B-C7B9-4D19-AF58-5FCB731A7441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1695E1F6-6F8D-4763-80FC-57093163C271}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F536124-3BAA-43E7-ADC9-936F10A8E639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5256" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
   <si>
     <t>FirstName</t>
   </si>
@@ -116,202 +116,34 @@
     <t>Assisted Reading</t>
   </si>
   <si>
-    <t>FPK12School7147</t>
-  </si>
-  <si>
-    <t>FPK12Section7763</t>
-  </si>
-  <si>
-    <t>4131</t>
-  </si>
-  <si>
-    <t>3348</t>
-  </si>
-  <si>
-    <t>3911</t>
-  </si>
-  <si>
-    <t>FPK12School4921</t>
-  </si>
-  <si>
-    <t>FPK12Section6556</t>
-  </si>
-  <si>
-    <t>4489</t>
+    <t>FPK12School8198</t>
+  </si>
+  <si>
+    <t>465</t>
+  </si>
+  <si>
+    <t>FPK12Section9640</t>
+  </si>
+  <si>
+    <t>FPK12School3163</t>
+  </si>
+  <si>
+    <t>FPK12Classroom7692</t>
+  </si>
+  <si>
+    <t>FPK12Section3246</t>
+  </si>
+  <si>
+    <t>1100</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>2348</t>
-  </si>
-  <si>
-    <t>9125</t>
-  </si>
-  <si>
-    <t>FPK12School5562</t>
-  </si>
-  <si>
-    <t>FPK12Section3484</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>8786</t>
-  </si>
-  <si>
-    <t>5568</t>
-  </si>
-  <si>
-    <t>FPK12School1522</t>
-  </si>
-  <si>
-    <t>FPK12Section3783</t>
-  </si>
-  <si>
-    <t>8729</t>
-  </si>
-  <si>
-    <t>8663</t>
-  </si>
-  <si>
-    <t>3593</t>
-  </si>
-  <si>
-    <t>FPK12School9451</t>
-  </si>
-  <si>
-    <t>FPK12Section2229</t>
-  </si>
-  <si>
-    <t>9891</t>
-  </si>
-  <si>
-    <t>7206</t>
-  </si>
-  <si>
-    <t>2714</t>
-  </si>
-  <si>
-    <t>FPK12School6177</t>
-  </si>
-  <si>
-    <t>FPK12Section7273</t>
-  </si>
-  <si>
-    <t>1201</t>
-  </si>
-  <si>
-    <t>3524</t>
-  </si>
-  <si>
-    <t>1279</t>
-  </si>
-  <si>
-    <t>FPK12School6605</t>
-  </si>
-  <si>
-    <t>FPK12Section4390</t>
-  </si>
-  <si>
-    <t>5311</t>
-  </si>
-  <si>
-    <t>9155</t>
-  </si>
-  <si>
-    <t>6030</t>
-  </si>
-  <si>
-    <t>FPK12School8413</t>
-  </si>
-  <si>
-    <t>FPK12Section5281</t>
-  </si>
-  <si>
-    <t>6560</t>
-  </si>
-  <si>
-    <t>9370</t>
-  </si>
-  <si>
-    <t>4686</t>
-  </si>
-  <si>
-    <t>FPK12School6987</t>
-  </si>
-  <si>
-    <t>FPK12Section8489</t>
-  </si>
-  <si>
-    <t>5885</t>
-  </si>
-  <si>
-    <t>2276</t>
-  </si>
-  <si>
-    <t>2971</t>
-  </si>
-  <si>
-    <t>FPK12School1293</t>
-  </si>
-  <si>
-    <t>FPK12Section3474</t>
-  </si>
-  <si>
-    <t>845</t>
-  </si>
-  <si>
-    <t>1486</t>
-  </si>
-  <si>
-    <t>1585</t>
-  </si>
-  <si>
-    <t>FPK12School5609</t>
-  </si>
-  <si>
-    <t>FPK12Section1200</t>
-  </si>
-  <si>
-    <t>2800</t>
-  </si>
-  <si>
-    <t>9795</t>
-  </si>
-  <si>
-    <t>4711</t>
-  </si>
-  <si>
-    <t>FPK12School7075</t>
-  </si>
-  <si>
-    <t>FPK12Section2605</t>
-  </si>
-  <si>
-    <t>1091</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>8277</t>
-  </si>
-  <si>
-    <t>FPK12School8887</t>
-  </si>
-  <si>
-    <t>FPK12Section1402</t>
-  </si>
-  <si>
-    <t>5290</t>
-  </si>
-  <si>
-    <t>7883</t>
-  </si>
-  <si>
-    <t>4430</t>
+    <t>7226</t>
+  </si>
+  <si>
+    <t>7651</t>
   </si>
 </sst>
 </file>
@@ -444,7 +276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -501,39 +333,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -554,10 +353,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -850,24 +645,24 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="30.0"/>
     <col min="2" max="2" customWidth="true" width="20.0"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="16.0"/>
-    <col min="4" max="4" customWidth="true" style="1" width="19.90625"/>
-    <col min="5" max="5" customWidth="true" style="1" width="23.81640625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="20.54296875"/>
-    <col min="8" max="8" customWidth="true" width="31.54296875"/>
-    <col min="10" max="10" customWidth="true" width="16.36328125"/>
+    <col min="4" max="4" customWidth="true" style="1" width="19.88671875"/>
+    <col min="5" max="5" customWidth="true" style="1" width="23.77734375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="20.5546875"/>
+    <col min="8" max="8" customWidth="true" width="31.5546875"/>
+    <col min="10" max="10" customWidth="true" width="16.33203125"/>
     <col min="11" max="11" customWidth="true" width="15.0"/>
-    <col min="12" max="12" customWidth="true" width="18.36328125"/>
+    <col min="12" max="12" customWidth="true" width="18.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
@@ -905,15 +700,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="32">
-        <v>92</v>
-      </c>
-      <c r="B2" t="s" s="32">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s" s="32">
-        <v>93</v>
+    <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s" s="21">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s" s="21">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s" s="21">
+        <v>36</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>9</v>
@@ -943,7 +738,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -951,7 +746,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="F3" s="13">
         <v>1323</v>
@@ -965,7 +760,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -973,7 +768,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="F4" s="13">
         <v>1323</v>
@@ -987,7 +782,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -995,7 +790,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="F5" s="13">
         <v>1323</v>
@@ -1009,7 +804,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -1037,21 +832,21 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="30.0"/>
     <col min="2" max="2" customWidth="true" width="20.0"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="16.0"/>
-    <col min="4" max="4" customWidth="true" style="10" width="19.90625"/>
-    <col min="5" max="5" customWidth="true" style="1" width="23.81640625"/>
-    <col min="7" max="7" customWidth="true" width="11.54296875"/>
-    <col min="8" max="8" customWidth="true" style="1" width="38.453125"/>
-    <col min="11" max="11" customWidth="true" width="14.1796875"/>
+    <col min="4" max="4" customWidth="true" style="10" width="19.88671875"/>
+    <col min="5" max="5" customWidth="true" style="1" width="23.77734375"/>
+    <col min="7" max="7" customWidth="true" width="11.5546875"/>
+    <col min="8" max="8" customWidth="true" style="1" width="38.44140625"/>
+    <col min="11" max="11" customWidth="true" width="14.21875"/>
     <col min="12" max="12" customWidth="true" width="15.0"/>
-    <col min="13" max="13" customWidth="true" width="18.36328125"/>
+    <col min="13" max="13" customWidth="true" width="18.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
@@ -1090,7 +885,7 @@
       </c>
       <c r="M1" s="8"/>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>18</v>
       </c>
@@ -1129,7 +924,7 @@
       </c>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1152,7 +947,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1175,7 +970,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1198,7 +993,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>

--- a/src/test/resources/ExcelFiles/LoginDetails.xlsx
+++ b/src/test/resources/ExcelFiles/LoginDetails.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="70">
   <si>
     <t>FirstName</t>
   </si>
@@ -177,6 +177,60 @@
   </si>
   <si>
     <t>77699</t>
+  </si>
+  <si>
+    <t>FPK12School83964</t>
+  </si>
+  <si>
+    <t>FPK12Classroom28953</t>
+  </si>
+  <si>
+    <t>FPK12Section54903</t>
+  </si>
+  <si>
+    <t>80378</t>
+  </si>
+  <si>
+    <t>92129</t>
+  </si>
+  <si>
+    <t>72275</t>
+  </si>
+  <si>
+    <t>FPK12School10508</t>
+  </si>
+  <si>
+    <t>FPK12Classroom68711</t>
+  </si>
+  <si>
+    <t>FPK12Section17425</t>
+  </si>
+  <si>
+    <t>76901</t>
+  </si>
+  <si>
+    <t>78942</t>
+  </si>
+  <si>
+    <t>57317</t>
+  </si>
+  <si>
+    <t>FPK12School60269</t>
+  </si>
+  <si>
+    <t>FPK12Classroom89692</t>
+  </si>
+  <si>
+    <t>FPK12Section84827</t>
+  </si>
+  <si>
+    <t>14820</t>
+  </si>
+  <si>
+    <t>38249</t>
+  </si>
+  <si>
+    <t>56265</t>
   </si>
 </sst>
 </file>
@@ -309,7 +363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -366,6 +420,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -741,14 +804,14 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="22">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s" s="22">
-        <v>47</v>
-      </c>
-      <c r="C2" t="s" s="22">
-        <v>48</v>
+      <c r="A2" t="s" s="25">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s" s="25">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s" s="25">
+        <v>66</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>9</v>
@@ -786,7 +849,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F3" s="13">
         <v>1323</v>
@@ -808,7 +871,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="F4" s="13">
         <v>1323</v>
@@ -830,7 +893,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="F5" s="13">
         <v>1323</v>

--- a/src/test/resources/ExcelFiles/LoginDetails.xlsx
+++ b/src/test/resources/ExcelFiles/LoginDetails.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="76">
   <si>
     <t>FirstName</t>
   </si>
@@ -231,6 +231,24 @@
   </si>
   <si>
     <t>56265</t>
+  </si>
+  <si>
+    <t>FPK12School22187</t>
+  </si>
+  <si>
+    <t>FPK12Classroom67059</t>
+  </si>
+  <si>
+    <t>FPK12Section5501</t>
+  </si>
+  <si>
+    <t>64229</t>
+  </si>
+  <si>
+    <t>94120</t>
+  </si>
+  <si>
+    <t>92205</t>
   </si>
 </sst>
 </file>
@@ -363,7 +381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -420,6 +438,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -804,14 +825,14 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="25">
-        <v>64</v>
-      </c>
-      <c r="B2" t="s" s="25">
-        <v>65</v>
-      </c>
-      <c r="C2" t="s" s="25">
-        <v>66</v>
+      <c r="A2" t="s" s="26">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s" s="26">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s" s="26">
+        <v>72</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>9</v>
@@ -849,7 +870,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F3" s="13">
         <v>1323</v>
@@ -871,7 +892,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F4" s="13">
         <v>1323</v>
@@ -893,7 +914,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F5" s="13">
         <v>1323</v>

--- a/src/test/resources/ExcelFiles/LoginDetails.xlsx
+++ b/src/test/resources/ExcelFiles/LoginDetails.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="82">
   <si>
     <t>FirstName</t>
   </si>
@@ -249,6 +249,24 @@
   </si>
   <si>
     <t>92205</t>
+  </si>
+  <si>
+    <t>FPK12School93645</t>
+  </si>
+  <si>
+    <t>FPK12Classroom56239</t>
+  </si>
+  <si>
+    <t>FPK12Section76933</t>
+  </si>
+  <si>
+    <t>75311</t>
+  </si>
+  <si>
+    <t>52838</t>
+  </si>
+  <si>
+    <t>50691</t>
   </si>
 </sst>
 </file>
@@ -381,7 +399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -438,6 +456,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -825,14 +846,14 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="26">
-        <v>70</v>
-      </c>
-      <c r="B2" t="s" s="26">
-        <v>71</v>
-      </c>
-      <c r="C2" t="s" s="26">
-        <v>72</v>
+      <c r="A2" t="s" s="27">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s" s="27">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s" s="27">
+        <v>78</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>9</v>
@@ -870,7 +891,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F3" s="13">
         <v>1323</v>
@@ -892,7 +913,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F4" s="13">
         <v>1323</v>
@@ -914,7 +935,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F5" s="13">
         <v>1323</v>

--- a/src/test/resources/ExcelFiles/LoginDetails.xlsx
+++ b/src/test/resources/ExcelFiles/LoginDetails.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="89">
   <si>
     <t>FirstName</t>
   </si>
@@ -267,6 +267,27 @@
   </si>
   <si>
     <t>50691</t>
+  </si>
+  <si>
+    <t>FPK12School48551</t>
+  </si>
+  <si>
+    <t>FPK12Classroom93735</t>
+  </si>
+  <si>
+    <t>FPK12Section42833</t>
+  </si>
+  <si>
+    <t>11381</t>
+  </si>
+  <si>
+    <t>3850</t>
+  </si>
+  <si>
+    <t>57166</t>
+  </si>
+  <si>
+    <t>7444</t>
   </si>
 </sst>
 </file>
@@ -399,7 +420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -456,6 +477,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -846,14 +870,14 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="27">
-        <v>76</v>
-      </c>
-      <c r="B2" t="s" s="27">
-        <v>77</v>
-      </c>
-      <c r="C2" t="s" s="27">
-        <v>78</v>
+      <c r="A2" t="s" s="28">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s" s="28">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s" s="28">
+        <v>84</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>9</v>
@@ -891,7 +915,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F3" s="13">
         <v>1323</v>
@@ -909,11 +933,9 @@
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="F4" s="13">
         <v>1323</v>
@@ -931,11 +953,9 @@
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="F5" s="13">
         <v>1323</v>

--- a/src/test/resources/ExcelFiles/LoginDetails.xlsx
+++ b/src/test/resources/ExcelFiles/LoginDetails.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="98">
   <si>
     <t>FirstName</t>
   </si>
@@ -288,6 +288,33 @@
   </si>
   <si>
     <t>7444</t>
+  </si>
+  <si>
+    <t>FPK12School60560</t>
+  </si>
+  <si>
+    <t>FPK12Classroom30852</t>
+  </si>
+  <si>
+    <t>FPK12Section76423</t>
+  </si>
+  <si>
+    <t>FPK12School98753</t>
+  </si>
+  <si>
+    <t>FPK12Classroom85288</t>
+  </si>
+  <si>
+    <t>FPK12Section84910</t>
+  </si>
+  <si>
+    <t>76982</t>
+  </si>
+  <si>
+    <t>91009</t>
+  </si>
+  <si>
+    <t>95746</t>
   </si>
 </sst>
 </file>
@@ -420,7 +447,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -477,6 +504,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -870,14 +903,14 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="28">
-        <v>82</v>
-      </c>
-      <c r="B2" t="s" s="28">
-        <v>83</v>
-      </c>
-      <c r="C2" t="s" s="28">
-        <v>84</v>
+      <c r="A2" t="s" s="30">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s" s="30">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s" s="30">
+        <v>94</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>9</v>
@@ -915,7 +948,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F3" s="13">
         <v>1323</v>
@@ -933,9 +966,11 @@
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="F4" s="13">
         <v>1323</v>
@@ -953,9 +988,11 @@
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E5" s="2" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="F5" s="13">
         <v>1323</v>

--- a/src/test/resources/ExcelFiles/LoginDetails.xlsx
+++ b/src/test/resources/ExcelFiles/LoginDetails.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="110">
   <si>
     <t>FirstName</t>
   </si>
@@ -315,6 +315,42 @@
   </si>
   <si>
     <t>95746</t>
+  </si>
+  <si>
+    <t>FPK12School71985</t>
+  </si>
+  <si>
+    <t>FPK12Classroom60511</t>
+  </si>
+  <si>
+    <t>FPK12Section76666</t>
+  </si>
+  <si>
+    <t>30721</t>
+  </si>
+  <si>
+    <t>8889</t>
+  </si>
+  <si>
+    <t>21432</t>
+  </si>
+  <si>
+    <t>FPK12School16006</t>
+  </si>
+  <si>
+    <t>FPK12Classroom23482</t>
+  </si>
+  <si>
+    <t>FPK12Section35176</t>
+  </si>
+  <si>
+    <t>40247</t>
+  </si>
+  <si>
+    <t>67235</t>
+  </si>
+  <si>
+    <t>60032</t>
   </si>
 </sst>
 </file>
@@ -447,7 +483,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -504,6 +540,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -903,14 +945,14 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="30">
-        <v>92</v>
-      </c>
-      <c r="B2" t="s" s="30">
-        <v>93</v>
-      </c>
-      <c r="C2" t="s" s="30">
-        <v>94</v>
+      <c r="A2" t="s" s="32">
+        <v>104</v>
+      </c>
+      <c r="B2" t="s" s="32">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s" s="32">
+        <v>106</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>9</v>
@@ -948,7 +990,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="F3" s="13">
         <v>1323</v>
@@ -970,7 +1012,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="F4" s="13">
         <v>1323</v>
@@ -992,7 +1034,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="F5" s="13">
         <v>1323</v>

--- a/src/test/resources/ExcelFiles/LoginDetails.xlsx
+++ b/src/test/resources/ExcelFiles/LoginDetails.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://focalpointk12-my.sharepoint.com/personal/gopi_pagadala_focalpointk12_com/Documents/FPK12 Automation-2024/FPK12-AssessmentCenter/src/test/resources/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{0F536124-3BAA-43E7-ADC9-936F10A8E639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25C48A8C-46E5-4DD5-A9A6-B5E062D60EE5}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{0F536124-3BAA-43E7-ADC9-936F10A8E639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D1A48D8-CF0D-4FD3-8906-FC140A439001}"/>
   <bookViews>
-    <workbookView xWindow="5256" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5604" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="74">
   <si>
     <t>FirstName</t>
   </si>
@@ -116,241 +116,133 @@
     <t>Grade 5</t>
   </si>
   <si>
-    <t>FPK12School92202</t>
-  </si>
-  <si>
-    <t>FPK12Classroom38064</t>
-  </si>
-  <si>
-    <t>FPK12Section54329</t>
-  </si>
-  <si>
-    <t>62522</t>
-  </si>
-  <si>
-    <t>19965</t>
-  </si>
-  <si>
-    <t>54355</t>
-  </si>
-  <si>
     <t>Calculus</t>
   </si>
   <si>
     <t>Test For Automation</t>
   </si>
   <si>
-    <t>FPK12School7991</t>
-  </si>
-  <si>
-    <t>FPK12Classroom12028</t>
-  </si>
-  <si>
-    <t>FPK12Section66915</t>
-  </si>
-  <si>
-    <t>26253</t>
+    <t>FPK12Classroom23482</t>
+  </si>
+  <si>
+    <t>FPK12Section35176</t>
+  </si>
+  <si>
+    <t>FPK12Section85416</t>
+  </si>
+  <si>
+    <t>41295</t>
+  </si>
+  <si>
+    <t>50842</t>
+  </si>
+  <si>
+    <t>42826</t>
+  </si>
+  <si>
+    <t>FPK12School90650</t>
+  </si>
+  <si>
+    <t>FPK12Classroom10573</t>
+  </si>
+  <si>
+    <t>FPK12Section4592</t>
+  </si>
+  <si>
+    <t>FPK12School58293</t>
+  </si>
+  <si>
+    <t>FPK12School45189</t>
+  </si>
+  <si>
+    <t>FPK12Classroom6798</t>
+  </si>
+  <si>
+    <t>FPK12Section24361</t>
+  </si>
+  <si>
+    <t>708</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>67885</t>
-  </si>
-  <si>
-    <t>47594</t>
-  </si>
-  <si>
-    <t>FPK12School72811</t>
-  </si>
-  <si>
-    <t>FPK12Classroom74345</t>
-  </si>
-  <si>
-    <t>FPK12Section2129</t>
-  </si>
-  <si>
-    <t>93594</t>
-  </si>
-  <si>
-    <t>48655</t>
-  </si>
-  <si>
-    <t>77699</t>
-  </si>
-  <si>
-    <t>FPK12School83964</t>
-  </si>
-  <si>
-    <t>FPK12Classroom28953</t>
-  </si>
-  <si>
-    <t>FPK12Section54903</t>
-  </si>
-  <si>
-    <t>80378</t>
-  </si>
-  <si>
-    <t>92129</t>
-  </si>
-  <si>
-    <t>72275</t>
-  </si>
-  <si>
-    <t>FPK12School10508</t>
-  </si>
-  <si>
-    <t>FPK12Classroom68711</t>
-  </si>
-  <si>
-    <t>FPK12Section17425</t>
-  </si>
-  <si>
-    <t>76901</t>
-  </si>
-  <si>
-    <t>78942</t>
-  </si>
-  <si>
-    <t>57317</t>
-  </si>
-  <si>
-    <t>FPK12School60269</t>
-  </si>
-  <si>
-    <t>FPK12Classroom89692</t>
-  </si>
-  <si>
-    <t>FPK12Section84827</t>
-  </si>
-  <si>
-    <t>14820</t>
-  </si>
-  <si>
-    <t>38249</t>
-  </si>
-  <si>
-    <t>56265</t>
-  </si>
-  <si>
-    <t>FPK12School22187</t>
-  </si>
-  <si>
-    <t>FPK12Classroom67059</t>
-  </si>
-  <si>
-    <t>FPK12Section5501</t>
-  </si>
-  <si>
-    <t>64229</t>
-  </si>
-  <si>
-    <t>94120</t>
-  </si>
-  <si>
-    <t>92205</t>
-  </si>
-  <si>
-    <t>FPK12School93645</t>
-  </si>
-  <si>
-    <t>FPK12Classroom56239</t>
-  </si>
-  <si>
-    <t>FPK12Section76933</t>
-  </si>
-  <si>
-    <t>75311</t>
-  </si>
-  <si>
-    <t>52838</t>
-  </si>
-  <si>
-    <t>50691</t>
-  </si>
-  <si>
-    <t>FPK12School48551</t>
-  </si>
-  <si>
-    <t>FPK12Classroom93735</t>
-  </si>
-  <si>
-    <t>FPK12Section42833</t>
-  </si>
-  <si>
-    <t>11381</t>
-  </si>
-  <si>
-    <t>3850</t>
-  </si>
-  <si>
-    <t>57166</t>
-  </si>
-  <si>
-    <t>7444</t>
-  </si>
-  <si>
-    <t>FPK12School60560</t>
-  </si>
-  <si>
-    <t>FPK12Classroom30852</t>
-  </si>
-  <si>
-    <t>FPK12Section76423</t>
-  </si>
-  <si>
-    <t>FPK12School98753</t>
-  </si>
-  <si>
-    <t>FPK12Classroom85288</t>
-  </si>
-  <si>
-    <t>FPK12Section84910</t>
-  </si>
-  <si>
-    <t>76982</t>
-  </si>
-  <si>
-    <t>91009</t>
-  </si>
-  <si>
-    <t>95746</t>
-  </si>
-  <si>
-    <t>FPK12School71985</t>
-  </si>
-  <si>
-    <t>FPK12Classroom60511</t>
-  </si>
-  <si>
-    <t>FPK12Section76666</t>
-  </si>
-  <si>
-    <t>30721</t>
-  </si>
-  <si>
-    <t>8889</t>
-  </si>
-  <si>
-    <t>21432</t>
-  </si>
-  <si>
-    <t>FPK12School16006</t>
-  </si>
-  <si>
-    <t>FPK12Classroom23482</t>
-  </si>
-  <si>
-    <t>FPK12Section35176</t>
-  </si>
-  <si>
-    <t>40247</t>
-  </si>
-  <si>
-    <t>67235</t>
-  </si>
-  <si>
-    <t>60032</t>
+    <t>83197</t>
+  </si>
+  <si>
+    <t>45513</t>
+  </si>
+  <si>
+    <t>FPK12School56350</t>
+  </si>
+  <si>
+    <t>FPK12Classroom58750</t>
+  </si>
+  <si>
+    <t>FPK12Section46550</t>
+  </si>
+  <si>
+    <t>FPK12School27513</t>
+  </si>
+  <si>
+    <t>FPK12Classroom71679</t>
+  </si>
+  <si>
+    <t>FPK12Section65933</t>
+  </si>
+  <si>
+    <t>38491</t>
+  </si>
+  <si>
+    <t>81181</t>
+  </si>
+  <si>
+    <t>22437</t>
+  </si>
+  <si>
+    <t>FPK12School15579</t>
+  </si>
+  <si>
+    <t>FPK12Classroom15510</t>
+  </si>
+  <si>
+    <t>FPK12Section80178</t>
+  </si>
+  <si>
+    <t>FPK12School51666</t>
+  </si>
+  <si>
+    <t>FPK12Classroom27857</t>
+  </si>
+  <si>
+    <t>FPK12Section82209</t>
+  </si>
+  <si>
+    <t>50587</t>
+  </si>
+  <si>
+    <t>27132</t>
+  </si>
+  <si>
+    <t>31027</t>
+  </si>
+  <si>
+    <t>FPK12School4476</t>
+  </si>
+  <si>
+    <t>FPK12Classroom47630</t>
+  </si>
+  <si>
+    <t>FPK12Section88391</t>
+  </si>
+  <si>
+    <t>55194</t>
+  </si>
+  <si>
+    <t>50875</t>
+  </si>
+  <si>
+    <t>58618</t>
   </si>
 </sst>
 </file>
@@ -483,7 +375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -540,6 +432,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -593,10 +521,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -886,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -904,9 +828,14 @@
     <col min="10" max="10" customWidth="true" width="19.77734375"/>
     <col min="11" max="11" customWidth="true" width="15.0"/>
     <col min="12" max="12" customWidth="true" width="18.33203125"/>
+    <col min="13" max="13" customWidth="true" width="19.33203125"/>
+    <col min="14" max="14" customWidth="true" width="23.6640625"/>
+    <col min="15" max="15" customWidth="true" width="20.109375"/>
+    <col min="16" max="16" customWidth="true" width="16.109375"/>
+    <col min="17" max="17" customWidth="true" width="15.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
@@ -943,16 +872,22 @@
       <c r="L1" s="19" t="s">
         <v>27</v>
       </c>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
     </row>
-    <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="32">
-        <v>104</v>
-      </c>
-      <c r="B2" t="s" s="32">
-        <v>105</v>
-      </c>
-      <c r="C2" t="s" s="32">
-        <v>106</v>
+    <row r="2" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s" s="42">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s" s="43">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s" s="44">
+        <v>70</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>9</v>
@@ -973,16 +908,22 @@
         <v>2024</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>30</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -990,7 +931,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="F3" s="13">
         <v>1323</v>
@@ -1004,7 +945,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1012,7 +953,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="F4" s="13">
         <v>1323</v>
@@ -1026,7 +967,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -1034,7 +975,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="F5" s="13">
         <v>1323</v>
@@ -1048,7 +989,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -1072,7 +1013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/ExcelFiles/LoginDetails.xlsx
+++ b/src/test/resources/ExcelFiles/LoginDetails.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="80">
   <si>
     <t>FirstName</t>
   </si>
@@ -243,6 +243,24 @@
   </si>
   <si>
     <t>58618</t>
+  </si>
+  <si>
+    <t>FPK12School72767</t>
+  </si>
+  <si>
+    <t>FPK12Classroom41898</t>
+  </si>
+  <si>
+    <t>FPK12Section45697</t>
+  </si>
+  <si>
+    <t>26806</t>
+  </si>
+  <si>
+    <t>76056</t>
+  </si>
+  <si>
+    <t>85963</t>
   </si>
 </sst>
 </file>
@@ -375,7 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -438,6 +456,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -880,14 +907,14 @@
       <c r="R1" s="22"/>
     </row>
     <row r="2" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="42">
-        <v>68</v>
-      </c>
-      <c r="B2" t="s" s="43">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s" s="44">
-        <v>70</v>
+      <c r="A2" t="s" s="45">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s" s="46">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s" s="47">
+        <v>76</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>9</v>
@@ -931,7 +958,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F3" s="13">
         <v>1323</v>
@@ -953,7 +980,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F4" s="13">
         <v>1323</v>
@@ -975,7 +1002,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F5" s="13">
         <v>1323</v>

--- a/src/test/resources/ExcelFiles/LoginDetails.xlsx
+++ b/src/test/resources/ExcelFiles/LoginDetails.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="84">
   <si>
     <t>FirstName</t>
   </si>
@@ -261,6 +261,18 @@
   </si>
   <si>
     <t>85963</t>
+  </si>
+  <si>
+    <t>FPK12School83984</t>
+  </si>
+  <si>
+    <t>16557</t>
+  </si>
+  <si>
+    <t>70829</t>
+  </si>
+  <si>
+    <t>74693</t>
   </si>
 </sst>
 </file>
@@ -393,7 +405,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -456,6 +468,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -907,8 +928,8 @@
       <c r="R1" s="22"/>
     </row>
     <row r="2" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="45">
-        <v>74</v>
+      <c r="A2" t="s" s="50">
+        <v>80</v>
       </c>
       <c r="B2" t="s" s="46">
         <v>75</v>
@@ -958,7 +979,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F3" s="13">
         <v>1323</v>
@@ -980,7 +1001,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F4" s="13">
         <v>1323</v>
@@ -1002,7 +1023,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F5" s="13">
         <v>1323</v>

--- a/src/test/resources/ExcelFiles/LoginDetails.xlsx
+++ b/src/test/resources/ExcelFiles/LoginDetails.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="416">
   <si>
     <t>FirstName</t>
   </si>
@@ -513,6 +513,762 @@
   </si>
   <si>
     <t>AssignmentName84348</t>
+  </si>
+  <si>
+    <t>FPK12School62881</t>
+  </si>
+  <si>
+    <t>FPK12Classroom45234</t>
+  </si>
+  <si>
+    <t>FPK12Section92436</t>
+  </si>
+  <si>
+    <t>36620</t>
+  </si>
+  <si>
+    <t>42378</t>
+  </si>
+  <si>
+    <t>1314</t>
+  </si>
+  <si>
+    <t>PortfolioCourse44092</t>
+  </si>
+  <si>
+    <t>AssignmentName44092</t>
+  </si>
+  <si>
+    <t>FPK12School66276</t>
+  </si>
+  <si>
+    <t>FPK12Classroom92612</t>
+  </si>
+  <si>
+    <t>FPK12Section37080</t>
+  </si>
+  <si>
+    <t>5243</t>
+  </si>
+  <si>
+    <t>25955</t>
+  </si>
+  <si>
+    <t>40184</t>
+  </si>
+  <si>
+    <t>FPK12School83275</t>
+  </si>
+  <si>
+    <t>FPK12Classroom28927</t>
+  </si>
+  <si>
+    <t>FPK12Section75749</t>
+  </si>
+  <si>
+    <t>72557</t>
+  </si>
+  <si>
+    <t>69987</t>
+  </si>
+  <si>
+    <t>16338</t>
+  </si>
+  <si>
+    <t>PortfolioCourse90169</t>
+  </si>
+  <si>
+    <t>AssignmentName90169</t>
+  </si>
+  <si>
+    <t>PortfolioCourse76690</t>
+  </si>
+  <si>
+    <t>AssignmentName76690</t>
+  </si>
+  <si>
+    <t>PortfolioCourse71921</t>
+  </si>
+  <si>
+    <t>AssignmentName71921</t>
+  </si>
+  <si>
+    <t>PortfolioCourse30609</t>
+  </si>
+  <si>
+    <t>AssignmentName30609</t>
+  </si>
+  <si>
+    <t>FPK12School88288</t>
+  </si>
+  <si>
+    <t>FPK12Classroom49337</t>
+  </si>
+  <si>
+    <t>FPK12Section79592</t>
+  </si>
+  <si>
+    <t>80058</t>
+  </si>
+  <si>
+    <t>5092</t>
+  </si>
+  <si>
+    <t>63871</t>
+  </si>
+  <si>
+    <t>PortfolioCourse48632</t>
+  </si>
+  <si>
+    <t>AssignmentName48632</t>
+  </si>
+  <si>
+    <t>FPK12School40806</t>
+  </si>
+  <si>
+    <t>FPK12Classroom96939</t>
+  </si>
+  <si>
+    <t>FPK12Section92021</t>
+  </si>
+  <si>
+    <t>63880</t>
+  </si>
+  <si>
+    <t>PortfolioCourse65787</t>
+  </si>
+  <si>
+    <t>AssignmentName65787</t>
+  </si>
+  <si>
+    <t>34110</t>
+  </si>
+  <si>
+    <t>52606</t>
+  </si>
+  <si>
+    <t>PortfolioCourse85923</t>
+  </si>
+  <si>
+    <t>AssignmentName85923</t>
+  </si>
+  <si>
+    <t>PortfolioCourse7199</t>
+  </si>
+  <si>
+    <t>AssignmentName7199</t>
+  </si>
+  <si>
+    <t>FPK12School19136</t>
+  </si>
+  <si>
+    <t>FPK12Classroom46910</t>
+  </si>
+  <si>
+    <t>FPK12Section34854</t>
+  </si>
+  <si>
+    <t>14825</t>
+  </si>
+  <si>
+    <t>FPK12School47957</t>
+  </si>
+  <si>
+    <t>FPK12Classroom26345</t>
+  </si>
+  <si>
+    <t>FPK12Section16128</t>
+  </si>
+  <si>
+    <t>9258</t>
+  </si>
+  <si>
+    <t>53321</t>
+  </si>
+  <si>
+    <t>34312</t>
+  </si>
+  <si>
+    <t>PortfolioCourse55906</t>
+  </si>
+  <si>
+    <t>AssignmentName55906</t>
+  </si>
+  <si>
+    <t>PortfolioCourse79083</t>
+  </si>
+  <si>
+    <t>AssignmentName79083</t>
+  </si>
+  <si>
+    <t>FPK12School18000</t>
+  </si>
+  <si>
+    <t>FPK12Classroom10229</t>
+  </si>
+  <si>
+    <t>FPK12Section71201</t>
+  </si>
+  <si>
+    <t>60634</t>
+  </si>
+  <si>
+    <t>35876</t>
+  </si>
+  <si>
+    <t>16106</t>
+  </si>
+  <si>
+    <t>FPK12School20569</t>
+  </si>
+  <si>
+    <t>FPK12Classroom59167</t>
+  </si>
+  <si>
+    <t>FPK12Section34457</t>
+  </si>
+  <si>
+    <t>70908</t>
+  </si>
+  <si>
+    <t>80194</t>
+  </si>
+  <si>
+    <t>56325</t>
+  </si>
+  <si>
+    <t>PortfolioCourse27558</t>
+  </si>
+  <si>
+    <t>AssignmentName27558</t>
+  </si>
+  <si>
+    <t>FPK12School50917</t>
+  </si>
+  <si>
+    <t>FPK12Classroom77743</t>
+  </si>
+  <si>
+    <t>FPK12Section445</t>
+  </si>
+  <si>
+    <t>10730</t>
+  </si>
+  <si>
+    <t>27795</t>
+  </si>
+  <si>
+    <t>26562</t>
+  </si>
+  <si>
+    <t>PortfolioCourse35500</t>
+  </si>
+  <si>
+    <t>AssignmentName35500</t>
+  </si>
+  <si>
+    <t>PortfolioCourse10707</t>
+  </si>
+  <si>
+    <t>AssignmentName10707</t>
+  </si>
+  <si>
+    <t>PortfolioCourse93210</t>
+  </si>
+  <si>
+    <t>AssignmentName93210</t>
+  </si>
+  <si>
+    <t>PortfolioCourse35590</t>
+  </si>
+  <si>
+    <t>AssignmentName35590</t>
+  </si>
+  <si>
+    <t>FPK12School47851</t>
+  </si>
+  <si>
+    <t>FPK12Classroom34338</t>
+  </si>
+  <si>
+    <t>FPK12Section31302</t>
+  </si>
+  <si>
+    <t>9401</t>
+  </si>
+  <si>
+    <t>33256</t>
+  </si>
+  <si>
+    <t>70365</t>
+  </si>
+  <si>
+    <t>PortfolioCourse59787</t>
+  </si>
+  <si>
+    <t>AssignmentName59787</t>
+  </si>
+  <si>
+    <t>PortfolioCourse70832</t>
+  </si>
+  <si>
+    <t>AssignmentName70832</t>
+  </si>
+  <si>
+    <t>FPK12School30169</t>
+  </si>
+  <si>
+    <t>FPK12Classroom61463</t>
+  </si>
+  <si>
+    <t>FPK12Section49418</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>6073</t>
+  </si>
+  <si>
+    <t>36945</t>
+  </si>
+  <si>
+    <t>FPK12School41742</t>
+  </si>
+  <si>
+    <t>FPK12Classroom25211</t>
+  </si>
+  <si>
+    <t>FPK12Section96405</t>
+  </si>
+  <si>
+    <t>88087</t>
+  </si>
+  <si>
+    <t>84409</t>
+  </si>
+  <si>
+    <t>95884</t>
+  </si>
+  <si>
+    <t>PortfolioCourse73090</t>
+  </si>
+  <si>
+    <t>AssignmentName73090</t>
+  </si>
+  <si>
+    <t>PortfolioCourse19403</t>
+  </si>
+  <si>
+    <t>AssignmentName19403</t>
+  </si>
+  <si>
+    <t>FPK12School62712</t>
+  </si>
+  <si>
+    <t>FPK12Classroom29626</t>
+  </si>
+  <si>
+    <t>FPK12Section40817</t>
+  </si>
+  <si>
+    <t>17553</t>
+  </si>
+  <si>
+    <t>39073</t>
+  </si>
+  <si>
+    <t>38977</t>
+  </si>
+  <si>
+    <t>PortfolioCourse54925</t>
+  </si>
+  <si>
+    <t>AssignmentName54925</t>
+  </si>
+  <si>
+    <t>FPK12School98587</t>
+  </si>
+  <si>
+    <t>FPK12Classroom34737</t>
+  </si>
+  <si>
+    <t>FPK12Section95943</t>
+  </si>
+  <si>
+    <t>31759</t>
+  </si>
+  <si>
+    <t>99040</t>
+  </si>
+  <si>
+    <t>56828</t>
+  </si>
+  <si>
+    <t>PortfolioCourse75692</t>
+  </si>
+  <si>
+    <t>AssignmentName75692</t>
+  </si>
+  <si>
+    <t>PortfolioCourse6589</t>
+  </si>
+  <si>
+    <t>AssignmentName6589</t>
+  </si>
+  <si>
+    <t>FPK12School3084</t>
+  </si>
+  <si>
+    <t>FPK12Classroom66547</t>
+  </si>
+  <si>
+    <t>FPK12Section99451</t>
+  </si>
+  <si>
+    <t>9038</t>
+  </si>
+  <si>
+    <t>86705</t>
+  </si>
+  <si>
+    <t>48619</t>
+  </si>
+  <si>
+    <t>PortfolioCourse8144</t>
+  </si>
+  <si>
+    <t>AssignmentName8144</t>
+  </si>
+  <si>
+    <t>PortfolioCourse1498</t>
+  </si>
+  <si>
+    <t>AssignmentName1498</t>
+  </si>
+  <si>
+    <t>FPK12School19073</t>
+  </si>
+  <si>
+    <t>FPK12Classroom93229</t>
+  </si>
+  <si>
+    <t>FPK12Section946</t>
+  </si>
+  <si>
+    <t>59705</t>
+  </si>
+  <si>
+    <t>42909</t>
+  </si>
+  <si>
+    <t>8285</t>
+  </si>
+  <si>
+    <t>PortfolioCourse47294</t>
+  </si>
+  <si>
+    <t>AssignmentName47294</t>
+  </si>
+  <si>
+    <t>FPK12School42802</t>
+  </si>
+  <si>
+    <t>FPK12Classroom77665</t>
+  </si>
+  <si>
+    <t>FPK12Section86498</t>
+  </si>
+  <si>
+    <t>28257</t>
+  </si>
+  <si>
+    <t>11316</t>
+  </si>
+  <si>
+    <t>19666</t>
+  </si>
+  <si>
+    <t>PortfolioCourse36842</t>
+  </si>
+  <si>
+    <t>AssignmentName36842</t>
+  </si>
+  <si>
+    <t>PortfolioCourse88822</t>
+  </si>
+  <si>
+    <t>AssignmentName88822</t>
+  </si>
+  <si>
+    <t>FPK12School82619</t>
+  </si>
+  <si>
+    <t>FPK12Classroom92660</t>
+  </si>
+  <si>
+    <t>FPK12Section12383</t>
+  </si>
+  <si>
+    <t>51490</t>
+  </si>
+  <si>
+    <t>90897</t>
+  </si>
+  <si>
+    <t>53885</t>
+  </si>
+  <si>
+    <t>PortfolioCourse62235</t>
+  </si>
+  <si>
+    <t>AssignmentName62235</t>
+  </si>
+  <si>
+    <t>PortfolioCourse63982</t>
+  </si>
+  <si>
+    <t>AssignmentName63982</t>
+  </si>
+  <si>
+    <t>PortfolioCourse13830</t>
+  </si>
+  <si>
+    <t>AssignmentName13830</t>
+  </si>
+  <si>
+    <t>FPK12School49119</t>
+  </si>
+  <si>
+    <t>FPK12Classroom91747</t>
+  </si>
+  <si>
+    <t>FPK12Section50990</t>
+  </si>
+  <si>
+    <t>38773</t>
+  </si>
+  <si>
+    <t>PortfolioCourse48218</t>
+  </si>
+  <si>
+    <t>AssignmentName48218</t>
+  </si>
+  <si>
+    <t>FPK12School85004</t>
+  </si>
+  <si>
+    <t>FPK12Classroom22013</t>
+  </si>
+  <si>
+    <t>FPK12Section19164</t>
+  </si>
+  <si>
+    <t>55788</t>
+  </si>
+  <si>
+    <t>77550</t>
+  </si>
+  <si>
+    <t>86386</t>
+  </si>
+  <si>
+    <t>PortfolioCourse58181</t>
+  </si>
+  <si>
+    <t>AssignmentName58181</t>
+  </si>
+  <si>
+    <t>PortfolioCourse43936</t>
+  </si>
+  <si>
+    <t>AssignmentName43936</t>
+  </si>
+  <si>
+    <t>FPK12School3813</t>
+  </si>
+  <si>
+    <t>FPK12Classroom18630</t>
+  </si>
+  <si>
+    <t>FPK12Section15502</t>
+  </si>
+  <si>
+    <t>68932</t>
+  </si>
+  <si>
+    <t>15258</t>
+  </si>
+  <si>
+    <t>47191</t>
+  </si>
+  <si>
+    <t>PortfolioCourse93329</t>
+  </si>
+  <si>
+    <t>AssignmentName93329</t>
+  </si>
+  <si>
+    <t>PortfolioCourse30000</t>
+  </si>
+  <si>
+    <t>AssignmentName30000</t>
+  </si>
+  <si>
+    <t>FPK12School12406</t>
+  </si>
+  <si>
+    <t>FPK12Classroom88917</t>
+  </si>
+  <si>
+    <t>FPK12Section51323</t>
+  </si>
+  <si>
+    <t>67801</t>
+  </si>
+  <si>
+    <t>91353</t>
+  </si>
+  <si>
+    <t>79901</t>
+  </si>
+  <si>
+    <t>FPK12School88374</t>
+  </si>
+  <si>
+    <t>FPK12Classroom7982</t>
+  </si>
+  <si>
+    <t>FPK12Section65704</t>
+  </si>
+  <si>
+    <t>41230</t>
+  </si>
+  <si>
+    <t>2038</t>
+  </si>
+  <si>
+    <t>PortfolioCourse14845</t>
+  </si>
+  <si>
+    <t>AssignmentName14845</t>
+  </si>
+  <si>
+    <t>FPK12School73728</t>
+  </si>
+  <si>
+    <t>FPK12Classroom32021</t>
+  </si>
+  <si>
+    <t>FPK12Section55818</t>
+  </si>
+  <si>
+    <t>63031</t>
+  </si>
+  <si>
+    <t>88259</t>
+  </si>
+  <si>
+    <t>668</t>
+  </si>
+  <si>
+    <t>PortfolioCourse52112</t>
+  </si>
+  <si>
+    <t>AssignmentName52112</t>
+  </si>
+  <si>
+    <t>FPK12School28850</t>
+  </si>
+  <si>
+    <t>FPK12Classroom1575</t>
+  </si>
+  <si>
+    <t>FPK12Section468</t>
+  </si>
+  <si>
+    <t>98891</t>
+  </si>
+  <si>
+    <t>21349</t>
+  </si>
+  <si>
+    <t>61689</t>
+  </si>
+  <si>
+    <t>PortfolioCourse6137</t>
+  </si>
+  <si>
+    <t>AssignmentName6137</t>
+  </si>
+  <si>
+    <t>PortfolioCourse54691</t>
+  </si>
+  <si>
+    <t>AssignmentName54691</t>
+  </si>
+  <si>
+    <t>90541</t>
+  </si>
+  <si>
+    <t>FPK12School50057</t>
+  </si>
+  <si>
+    <t>FPK12Classroom26264</t>
+  </si>
+  <si>
+    <t>FPK12Section42390</t>
+  </si>
+  <si>
+    <t>63892</t>
+  </si>
+  <si>
+    <t>59481</t>
+  </si>
+  <si>
+    <t>24706</t>
+  </si>
+  <si>
+    <t>PortfolioCourse45034</t>
+  </si>
+  <si>
+    <t>AssignmentName45034</t>
+  </si>
+  <si>
+    <t>PortfolioCourse78032</t>
+  </si>
+  <si>
+    <t>AssignmentName78032</t>
+  </si>
+  <si>
+    <t>FPK12School42551</t>
+  </si>
+  <si>
+    <t>FPK12Classroom22523</t>
+  </si>
+  <si>
+    <t>FPK12Section4954</t>
+  </si>
+  <si>
+    <t>49517</t>
+  </si>
+  <si>
+    <t>31530</t>
+  </si>
+  <si>
+    <t>2089</t>
+  </si>
+  <si>
+    <t>PortfolioCourse63129</t>
+  </si>
+  <si>
+    <t>AssignmentName63129</t>
+  </si>
+  <si>
+    <t>PortfolioCourse32680</t>
+  </si>
+  <si>
+    <t>AssignmentName32680</t>
   </si>
 </sst>
 </file>
@@ -658,7 +1414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -721,6 +1477,90 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1160,14 +2000,14 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="32">
-        <v>154</v>
-      </c>
-      <c r="B2" t="s" s="32">
-        <v>155</v>
-      </c>
-      <c r="C2" t="s" s="32">
-        <v>156</v>
+      <c r="A2" t="s" s="60">
+        <v>406</v>
+      </c>
+      <c r="B2" t="s" s="60">
+        <v>407</v>
+      </c>
+      <c r="C2" t="s" s="60">
+        <v>408</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>9</v>
@@ -1197,19 +2037,19 @@
         <v>31</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>160</v>
+        <v>412</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>36</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>161</v>
+        <v>413</v>
       </c>
       <c r="P2" s="6">
         <v>75</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>162</v>
+        <v>414</v>
       </c>
       <c r="R2" s="6" t="s">
         <v>47</v>
@@ -1221,7 +2061,7 @@
         <v>49</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>163</v>
+        <v>415</v>
       </c>
       <c r="V2" s="0">
         <v>88</v>
@@ -1238,7 +2078,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>157</v>
+        <v>409</v>
       </c>
       <c r="F3" s="13">
         <v>1323</v>
@@ -1252,7 +2092,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>158</v>
+        <v>410</v>
       </c>
       <c r="F4" s="13">
         <v>1323</v>
@@ -1269,7 +2109,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>159</v>
+        <v>411</v>
       </c>
       <c r="F5" s="13">
         <v>1323</v>
